--- a/supabase/upload_placelist.xlsx
+++ b/supabase/upload_placelist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\cursor_atp01\climbing_training_app\supabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AC0B82-B2AF-4FBE-ADD0-2705E64E12C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D72B7-E886-4741-8280-9D5F4F6973C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" xr2:uid="{871F42E8-7034-4D79-8F68-C0876A0499AE}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,61 +225,6 @@
   </si>
   <si>
     <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/theclimb_yisu.png</t>
-  </si>
-  <si>
-    <t>place_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>place_2</t>
-  </si>
-  <si>
-    <t>place_3</t>
-  </si>
-  <si>
-    <t>place_4</t>
-  </si>
-  <si>
-    <t>place_5</t>
-  </si>
-  <si>
-    <t>place_6</t>
-  </si>
-  <si>
-    <t>place_7</t>
-  </si>
-  <si>
-    <t>place_8</t>
-  </si>
-  <si>
-    <t>place_9</t>
-  </si>
-  <si>
-    <t>place_10</t>
-  </si>
-  <si>
-    <t>place_11</t>
-  </si>
-  <si>
-    <t>place_12</t>
-  </si>
-  <si>
-    <t>place_13</t>
-  </si>
-  <si>
-    <t>place_14</t>
-  </si>
-  <si>
-    <t>place_15</t>
-  </si>
-  <si>
-    <t>place_16</t>
-  </si>
-  <si>
-    <t>place_17</t>
-  </si>
-  <si>
-    <t>place_18</t>
   </si>
 </sst>
 </file>
@@ -660,19 +601,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED05AD8-3740-4194-8E80-7C23C391F111}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,266 +623,209 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{86438A6E-9949-4A18-AF3F-E38AF579E0C1}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{86438A6E-9949-4A18-AF3F-E38AF579E0C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/supabase/upload_placelist.xlsx
+++ b/supabase/upload_placelist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\cursor_atp01\climbing_training_app\supabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D72B7-E886-4741-8280-9D5F4F6973C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C96FAB4-4D21-4969-9D8C-77F46E19098F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" xr2:uid="{871F42E8-7034-4D79-8F68-C0876A0499AE}"/>
   </bookViews>
@@ -172,59 +172,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/grabit.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/handwerk_bongseon.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/handwerk_jeonnamuniv.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/handwerk_yangsan.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/incave.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/redone_bongseon.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/redone_chomdam.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/theclimb_gangnam.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/theclimb_ilsan.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/theclimb_magok.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/theclimb_moonrae.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/theclimb_nonheon.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/theclimb_sadang.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/theclimb_shinlim.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/theclimb_shinsa.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/theclimb_yangjae.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/theclimb_yeonnam.png</t>
-  </si>
-  <si>
-    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/theclimb_yisu.png</t>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_incave.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_theclimb_munrae.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_handwerk_ys.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_redone_cd.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_theclimb_shinlim.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_theclimb_magok.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_handwerk_cnu.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_theclimb_nonheon.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_theclimb_lisan.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_theclimb_yeonnam.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_theclimb_gangnam.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_grabit.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_theclimb_shinsa.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_redone_bs.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_theclimb_yangjae.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_theclimb_yisu.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_handwerk_bs.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://psrtsozhzkootzfrwhku.supabase.co/storage/v1/object/public/place_images/logo_theclimb_sadang.svg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -603,14 +620,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED05AD8-3740-4194-8E80-7C23C391F111}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -632,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -642,8 +659,8 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>40</v>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -653,8 +670,8 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -664,8 +681,8 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>42</v>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -675,8 +692,8 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>43</v>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -686,8 +703,8 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -697,8 +714,8 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>45</v>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -708,8 +725,8 @@
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
-        <v>46</v>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -719,7 +736,7 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -730,8 +747,8 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>48</v>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -741,8 +758,8 @@
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
-        <v>49</v>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -752,8 +769,8 @@
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -763,8 +780,8 @@
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
-        <v>51</v>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -774,8 +791,8 @@
       <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>52</v>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -785,8 +802,8 @@
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
-        <v>53</v>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -796,8 +813,8 @@
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
-        <v>54</v>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -807,8 +824,8 @@
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
-        <v>55</v>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -818,16 +835,33 @@
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
-        <v>56</v>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{86438A6E-9949-4A18-AF3F-E38AF579E0C1}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{E964A4C0-70CA-441B-B897-1F0D3CF29A46}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{EB0B89B6-2F1F-45C9-B2DB-E62F1DF4157B}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{BB0049C1-2B4F-468E-94E0-D8409AA70701}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{75396218-6AAA-480A-A404-B294B7E03E08}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{6D48FB01-6EC1-4C9D-8D59-07CF8F211AED}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{19B112C8-1642-4E5E-A86A-B9ADBA50796E}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{67ABB979-BFB2-4957-A757-4B62EDF2B26A}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{586D0AEE-53FD-4DDF-B853-AAFFA4CF0EFE}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{76B90D69-73A4-4111-B0F7-777A9115532F}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{62E58056-5194-4199-AB84-4A4AF3C1571A}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{D7E4D473-8188-46DD-9971-2958C5F7D155}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{5E5553B3-C67B-4380-ACC3-46855BFD9F3B}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{8B03D3C2-FCCE-4845-957D-B9D3F696EE9D}"/>
+    <hyperlink ref="C7" r:id="rId14" xr:uid="{9B2D5415-E3D1-4FFA-A53A-6DB0AC848D76}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{0A3F9C83-97D6-43E9-B80C-97BE9AF599F8}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{00B1A8E7-93B6-40FF-89DD-B56A1E95C616}"/>
+    <hyperlink ref="C3" r:id="rId17" xr:uid="{4E555E1C-C924-4011-9883-B5F5CD9297B3}"/>
+    <hyperlink ref="C14" r:id="rId18" xr:uid="{49A2A3C1-68D8-42E5-BC87-BF0075291814}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>